--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H2">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I2">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J2">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N2">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O2">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P2">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q2">
-        <v>32.31975703436533</v>
+        <v>73.48390831130267</v>
       </c>
       <c r="R2">
-        <v>290.877813309288</v>
+        <v>661.355174801724</v>
       </c>
       <c r="S2">
-        <v>0.0007903989757646817</v>
+        <v>0.001913429332506745</v>
       </c>
       <c r="T2">
-        <v>0.0007903989757646818</v>
+        <v>0.001913429332506745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H3">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I3">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J3">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>194.521294</v>
       </c>
       <c r="O3">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P3">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q3">
-        <v>36.45929904223689</v>
+        <v>83.06928115579868</v>
       </c>
       <c r="R3">
-        <v>328.1336913801321</v>
+        <v>747.6235304021881</v>
       </c>
       <c r="S3">
-        <v>0.0008916339497676601</v>
+        <v>0.002163020487701891</v>
       </c>
       <c r="T3">
-        <v>0.0008916339497676603</v>
+        <v>0.002163020487701891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H4">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I4">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J4">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N4">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O4">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P4">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q4">
-        <v>17.09577904898044</v>
+        <v>37.53068088639399</v>
       </c>
       <c r="R4">
-        <v>153.862011440824</v>
+        <v>337.776127977546</v>
       </c>
       <c r="S4">
-        <v>0.000418087494774349</v>
+        <v>0.000977252126720796</v>
       </c>
       <c r="T4">
-        <v>0.0004180874947743491</v>
+        <v>0.000977252126720796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H5">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I5">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J5">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N5">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O5">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P5">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q5">
-        <v>47.97231186625111</v>
+        <v>86.75532189362333</v>
       </c>
       <c r="R5">
-        <v>431.75080679626</v>
+        <v>780.7978970426101</v>
       </c>
       <c r="S5">
-        <v>0.001173191559696183</v>
+        <v>0.002259000391746866</v>
       </c>
       <c r="T5">
-        <v>0.001173191559696184</v>
+        <v>0.002259000391746866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>493.967652</v>
       </c>
       <c r="I6">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J6">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N6">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O6">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P6">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q6">
-        <v>9464.178497482288</v>
+        <v>9444.412436772802</v>
       </c>
       <c r="R6">
-        <v>85177.6064773406</v>
+        <v>84999.71193095524</v>
       </c>
       <c r="S6">
-        <v>0.2314521418867783</v>
+        <v>0.2459207219661862</v>
       </c>
       <c r="T6">
-        <v>0.2314521418867783</v>
+        <v>0.2459207219661862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>493.967652</v>
       </c>
       <c r="I7">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J7">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>194.521294</v>
       </c>
       <c r="O7">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P7">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q7">
         <v>10676.3585401313</v>
@@ -883,10 +883,10 @@
         <v>96087.2268611817</v>
       </c>
       <c r="S7">
-        <v>0.2610967293486648</v>
+        <v>0.2779990621688801</v>
       </c>
       <c r="T7">
-        <v>0.2610967293486648</v>
+        <v>0.2779990621688801</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>493.967652</v>
       </c>
       <c r="I8">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J8">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N8">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O8">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P8">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q8">
-        <v>5006.148539453156</v>
+        <v>4823.576174288643</v>
       </c>
       <c r="R8">
-        <v>45055.33685507841</v>
+        <v>43412.18556859779</v>
       </c>
       <c r="S8">
-        <v>0.1224283547027393</v>
+        <v>0.1255999082188847</v>
       </c>
       <c r="T8">
-        <v>0.1224283547027393</v>
+        <v>0.1255999082188847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>493.967652</v>
       </c>
       <c r="I9">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J9">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N9">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O9">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P9">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q9">
-        <v>14047.70840190209</v>
+        <v>11150.10156478487</v>
       </c>
       <c r="R9">
-        <v>126429.3756171188</v>
+        <v>100350.9140830639</v>
       </c>
       <c r="S9">
-        <v>0.3435451052710045</v>
+        <v>0.2903347397379403</v>
       </c>
       <c r="T9">
-        <v>0.3435451052710045</v>
+        <v>0.2903347397379403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H10">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I10">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J10">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N10">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O10">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P10">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q10">
-        <v>375.0488199442787</v>
+        <v>528.4880436737171</v>
       </c>
       <c r="R10">
-        <v>3375.439379498508</v>
+        <v>4756.392393063455</v>
       </c>
       <c r="S10">
-        <v>0.009172043058074666</v>
+        <v>0.01376116959321907</v>
       </c>
       <c r="T10">
-        <v>0.009172043058074666</v>
+        <v>0.01376116959321907</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H11">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I11">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J11">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>194.521294</v>
       </c>
       <c r="O11">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P11">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q11">
-        <v>423.0853922338292</v>
+        <v>597.4249723004665</v>
       </c>
       <c r="R11">
-        <v>3807.768530104462</v>
+        <v>5376.824750704199</v>
       </c>
       <c r="S11">
-        <v>0.01034680614483103</v>
+        <v>0.01555620124516316</v>
       </c>
       <c r="T11">
-        <v>0.01034680614483103</v>
+        <v>0.01555620124516316</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H12">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I12">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J12">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N12">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O12">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P12">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q12">
-        <v>198.3848997234315</v>
+        <v>269.9164562038156</v>
       </c>
       <c r="R12">
-        <v>1785.464097510884</v>
+        <v>2429.248105834341</v>
       </c>
       <c r="S12">
-        <v>0.004851621297209994</v>
+        <v>0.007028287913575965</v>
       </c>
       <c r="T12">
-        <v>0.004851621297209996</v>
+        <v>0.007028287913575965</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H13">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I13">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J13">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N13">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O13">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P13">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q13">
-        <v>556.6860832618789</v>
+        <v>623.9345647160205</v>
       </c>
       <c r="R13">
-        <v>5010.174749356909</v>
+        <v>5615.411082444185</v>
       </c>
       <c r="S13">
-        <v>0.01361409089693306</v>
+        <v>0.01624647797222338</v>
       </c>
       <c r="T13">
-        <v>0.01361409089693306</v>
+        <v>0.01624647797222338</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H14">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I14">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J14">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N14">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O14">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P14">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q14">
-        <v>2.170197773213333</v>
+        <v>2.419036844796</v>
       </c>
       <c r="R14">
-        <v>19.53177995892</v>
+        <v>21.771331603164</v>
       </c>
       <c r="S14">
-        <v>5.307348366916013E-05</v>
+        <v>6.298870271895014E-05</v>
       </c>
       <c r="T14">
-        <v>5.307348366916013E-05</v>
+        <v>6.298870271895014E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H15">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I15">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J15">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>194.521294</v>
       </c>
       <c r="O15">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P15">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q15">
-        <v>2.448158552375556</v>
+        <v>2.734580351052</v>
       </c>
       <c r="R15">
-        <v>22.03342697138</v>
+        <v>24.611223159468</v>
       </c>
       <c r="S15">
-        <v>5.987118066047625E-05</v>
+        <v>7.120506211554729E-05</v>
       </c>
       <c r="T15">
-        <v>5.987118066047627E-05</v>
+        <v>7.120506211554729E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H16">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I16">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J16">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N16">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O16">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P16">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q16">
-        <v>1.147942467017778</v>
+        <v>1.235482733034</v>
       </c>
       <c r="R16">
-        <v>10.33148220316</v>
+        <v>11.119344597306</v>
       </c>
       <c r="S16">
-        <v>2.807361915508443E-05</v>
+        <v>3.217042962900278E-05</v>
       </c>
       <c r="T16">
-        <v>2.807361915508444E-05</v>
+        <v>3.217042962900278E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H17">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I17">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J17">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N17">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O17">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P17">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q17">
-        <v>3.221231034544445</v>
+        <v>2.85592213269</v>
       </c>
       <c r="R17">
-        <v>28.9910793109</v>
+        <v>25.70329919421</v>
       </c>
       <c r="S17">
-        <v>7.877713027663335E-05</v>
+        <v>7.436465078714039E-05</v>
       </c>
       <c r="T17">
-        <v>7.877713027663336E-05</v>
+        <v>7.436465078714039E-05</v>
       </c>
     </row>
   </sheetData>
